--- a/TestData/Staging/Web_POS/Promo/login_test_data.xlsx
+++ b/TestData/Staging/Web_POS/Promo/login_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Promo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Staging\Web_POS\Promo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>discount_on</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>TC_01</t>
@@ -222,12 +225,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -451,8 +457,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -540,37 +546,40 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -579,63 +588,66 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="4">
+        <v>31</v>
+      </c>
+      <c r="O2" s="5">
         <v>37348</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R2" s="1">
         <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V2" s="3">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -644,63 +656,66 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="4">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5">
         <v>37348</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R3" s="1">
         <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V3" s="3">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -709,31 +724,34 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="4">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5">
         <v>37348</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R4" s="1">
         <v>50</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V4" s="3">
+        <v>4741854178</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -745,9 +763,9 @@
       <c r="I5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" ht="27" customHeight="1">
       <c r="B6" s="2"/>
@@ -758,9 +776,9 @@
       <c r="I6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" ht="44.25" customHeight="1">
       <c r="B7" s="2"/>
@@ -771,9 +789,9 @@
       <c r="I7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="B8" s="2"/>
@@ -783,9 +801,9 @@
       <c r="F8" s="2"/>
       <c r="I8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="2"/>
@@ -796,9 +814,9 @@
       <c r="I9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" ht="33" customHeight="1">
       <c r="B10" s="2"/>
@@ -809,9 +827,9 @@
       <c r="I10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="2"/>
@@ -822,9 +840,9 @@
       <c r="I11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="2"/>
